--- a/levenshtein/levenshtein_text_toneless.xlsx
+++ b/levenshtein/levenshtein_text_toneless.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/dialects_data/levenshtein/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131210BB-EED0-3E4F-A2CC-5ABEB7F9CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="279">
-  <si>
-    <t>sentence_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="278">
   <si>
     <t>Beijing</t>
   </si>
@@ -856,8 +859,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,13 +923,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -964,7 +975,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -998,6 +1009,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1032,9 +1044,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1207,948 +1220,946 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/levenshtein/levenshtein_text_toneless.xlsx
+++ b/levenshtein/levenshtein_text_toneless.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/dialects_data/levenshtein/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131210BB-EED0-3E4F-A2CC-5ABEB7F9CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="296">
+  <si>
+    <t>sentence_id</t>
+  </si>
   <si>
     <t>Beijing</t>
   </si>
@@ -64,6 +61,9 @@
     <t>Harbin</t>
   </si>
   <si>
+    <t>Xian</t>
+  </si>
+  <si>
     <t>iouixuei</t>
   </si>
   <si>
@@ -854,13 +854,61 @@
   </si>
   <si>
     <t>tʰamənliataŋtʂuŋxaiʂɻ̩tʰaiiaŋtitʂaŋtʂʰəŋta</t>
+  </si>
+  <si>
+    <t>peifəŋkẽərtʰoutsaiuortsəŋseitipẽsɹ̩ta</t>
+  </si>
+  <si>
+    <t>tsəŋkuolaitsəŋkuotɕʰitsousɹ̩fẽpupfʰukɤkauti</t>
+  </si>
+  <si>
+    <t>tʂɤkɤsɹ̩xouluxakuolailiɛikɤʐẽ</t>
+  </si>
+  <si>
+    <t>ʂẽxapfʰãliɛtɕiarxoutatʂʰaŋ</t>
+  </si>
+  <si>
+    <t>tsousuãseitipẽsɹ̩ta</t>
+  </si>
+  <si>
+    <t>peifəŋtsoukutɕiərtikuakʰailiɛ</t>
+  </si>
+  <si>
+    <t>tʰayɛkuayɛta</t>
+  </si>
+  <si>
+    <t>ukɤtsoulutipatatʂʰaŋyɛkuoyɛtɕiẽ</t>
+  </si>
+  <si>
+    <t>peifəŋmofarliɛ</t>
+  </si>
+  <si>
+    <t>tsɹ̩teisuãliɛ</t>
+  </si>
+  <si>
+    <t>kuoliɛixa</t>
+  </si>
+  <si>
+    <t>ərtʰoupfʰulailiɛ</t>
+  </si>
+  <si>
+    <t>tʰaləŋkərtisai</t>
+  </si>
+  <si>
+    <t>ukɤtsoulutisaitiʂoupuliau</t>
+  </si>
+  <si>
+    <t>maʂaŋtsoupaxoutatʂʰaŋtʰuoxalailiɛ</t>
+  </si>
+  <si>
+    <t>tʂeiixapeifəŋtsɹ̩teiʐẽliɛ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,21 +971,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -975,7 +1015,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1009,7 +1049,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1044,10 +1083,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1220,946 +1258,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O3" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="P3" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O4" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="P4" t="s">
+        <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O5" t="s">
-        <v>262</v>
+        <v>264</v>
+      </c>
+      <c r="P5" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O6" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="P6" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O9" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="P9" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O10" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="P10" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O11" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="P11" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O12" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="P12" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O13" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="P13" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O14" t="s">
-        <v>271</v>
+        <v>273</v>
+      </c>
+      <c r="P14" t="s">
+        <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O15" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="P15" t="s">
+        <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O16" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="P16" t="s">
+        <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O17" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="P17" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N18" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O18" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="P18" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O19" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="P19" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O20" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="P20" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/levenshtein/levenshtein_text_toneless.xlsx
+++ b/levenshtein/levenshtein_text_toneless.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="316">
   <si>
     <t>sentence_id</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Xian</t>
   </si>
   <si>
+    <t>Wulumuqi</t>
+  </si>
+  <si>
     <t>iouixuei</t>
   </si>
   <si>
@@ -902,6 +905,63 @@
   </si>
   <si>
     <t>tʂeiixapeifəŋtsɹ̩teiʐẽliɛ</t>
+  </si>
+  <si>
+    <t>iɤuixuei</t>
+  </si>
+  <si>
+    <t>peifɤŋkɤŋtʰaiiaŋtsaineitatsɤŋseitipɤŋsɹ̩ta</t>
+  </si>
+  <si>
+    <t>tsɤŋkuɤlaitsɤŋkuɤtɕʰitiɲiŋsɹ̩fɤŋputʂʰukɤkɔtiʂɑŋɕia</t>
+  </si>
+  <si>
+    <t>tseikɤsɹ̩tɕiɤkɤlusɑŋkuɤlailiɤkɤkanluti</t>
+  </si>
+  <si>
+    <t>ʂɤŋxɑŋtʂʰuantiitɕiantsɹ̩xɤutai</t>
+  </si>
+  <si>
+    <t>ɲiamɤŋliɑŋkɤfɤtʰuɤliɤ</t>
+  </si>
+  <si>
+    <t>nakɤʐɤŋtanɕiantɕiɔtseikɤkanlutitʰuɤtiɔtʰatixɤutai</t>
+  </si>
+  <si>
+    <t>tɕiɤusuannakɤʐɤŋtitʂɑŋtʂʰɤŋta</t>
+  </si>
+  <si>
+    <t>peifɤŋtɕiɤufɑŋtʂanliɤsɹ̩tɕiŋkuatʰuɤliɤ</t>
+  </si>
+  <si>
+    <t>tantʰakuatiyɤsɹ̩tɕiŋta</t>
+  </si>
+  <si>
+    <t>neikɤkanlutipataitɕiɤuyɤkuɤtiianʂɻ̩</t>
+  </si>
+  <si>
+    <t>tɔxɤutʰɤupeifɤŋmɤ=tɤuɲianliɤ</t>
+  </si>
+  <si>
+    <t>iɤtɕiɤutsuɤpaliɤ</t>
+  </si>
+  <si>
+    <t>iɤukuɤliɤitʂɤŋtsɹ̩</t>
+  </si>
+  <si>
+    <t>tʰaiiɑŋtʂʰulailiɤ</t>
+  </si>
+  <si>
+    <t>tʰanuannuanxuɤxuɤtiisai</t>
+  </si>
+  <si>
+    <t>neikɤkanlutipaneitɕiantsɹ̩xɤutailimertɕiɤutʰuɤtioliɤ</t>
+  </si>
+  <si>
+    <t>tseiixapeifɤŋtɕiɤutsɹ̩teiʐɤŋtʂɑŋliɤ</t>
+  </si>
+  <si>
+    <t>tɔtʰɤulaitʰamɤŋliɑŋkɤʐɤŋtɑŋtʂuŋxansɹ̩tʰaiiɑŋtitʂɑŋtʂʰɤŋta</t>
   </si>
 </sst>
 </file>
@@ -1259,13 +1319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,946 +1374,1006 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P3" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P4" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P5" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P6" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O7" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O8" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P9" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P10" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P11" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P12" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P13" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P14" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P15" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P16" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P17" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P18" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P19" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P20" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/levenshtein/levenshtein_text_toneless.xlsx
+++ b/levenshtein/levenshtein_text_toneless.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="336">
   <si>
     <t>sentence_id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>Wulumuqi</t>
   </si>
   <si>
+    <t>Wenzhou</t>
+  </si>
+  <si>
     <t>iouixuei</t>
   </si>
   <si>
@@ -962,6 +965,63 @@
   </si>
   <si>
     <t>tɔtʰɤulaitʰamɤŋliɑŋkɤʐɤŋtɑŋtʂuŋxansɹ̩tʰaiiɑŋtitʂɑŋtʂʰɤŋta</t>
+  </si>
+  <si>
+    <t>jaujitsʰɹ̩</t>
+  </si>
+  <si>
+    <t>paihoŋkʰuɔtʰajizɹ̩tadziɛɲinaŋkepaŋzɹ̩dɤule</t>
+  </si>
+  <si>
+    <t>dziɛledziɛkʰeiakuɔfutɕʰydɤusailei</t>
+  </si>
+  <si>
+    <t>kaizɹ̩tɕiløyjijaukaiɦɛløykunaŋ</t>
+  </si>
+  <si>
+    <t>saŋjitɕadʑigaukedaji</t>
+  </si>
+  <si>
+    <t>giliɛkainɐjɤukuɔ</t>
+  </si>
+  <si>
+    <t>tsʰɹ̩aɲinaŋnaŋdeɦɛløykunaŋkegaudajitʰaiɦuɔɕi</t>
+  </si>
+  <si>
+    <t>jɤusøaɲinaŋpaŋzɹ̩dɤu</t>
+  </si>
+  <si>
+    <t>paihoŋpʰeŋmeŋtsʰɹ̩</t>
+  </si>
+  <si>
+    <t>ɲauɕateipaihoŋjyzɹ̩tsʰɹ̩tɕaiɕyɔ</t>
+  </si>
+  <si>
+    <t>ɦɛløykunaŋdedajipuɔloŋjytɕaŋ</t>
+  </si>
+  <si>
+    <t>paihoŋnaubaho</t>
+  </si>
+  <si>
+    <t>tsɹ̩hɜɕiɦuɔ</t>
+  </si>
+  <si>
+    <t>kujioŋ̩</t>
+  </si>
+  <si>
+    <t>tʰajisatɕʰy</t>
+  </si>
+  <si>
+    <t>miɛpiɛɲidɤutsɹ̩jisa</t>
+  </si>
+  <si>
+    <t>ɦɛløykunaŋkytɕaŋdegaudajimuɔlotʰai</t>
+  </si>
+  <si>
+    <t>kinaŋjileipaihoŋtsɹ̩hɜzeŋɲaŋ</t>
+  </si>
+  <si>
+    <t>giliɛkaivazɹ̩tʰajikepaŋzɹ̩dɤule</t>
   </si>
 </sst>
 </file>
@@ -1319,13 +1379,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,1003 +1437,1063 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="R2" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q3" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="R3" t="s">
+        <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q4" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="R4" t="s">
+        <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q5" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="R5" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q6" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="R6" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q7" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="R7" t="s">
+        <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q8" t="s">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="R8" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q9" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="R9" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q10" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="R10" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q11" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="R11" t="s">
+        <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q12" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="R12" t="s">
+        <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q13" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="R13" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q14" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="R14" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q15" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="R15" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q16" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="R16" t="s">
+        <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q17" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="R17" t="s">
+        <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q18" t="s">
-        <v>313</v>
+        <v>314</v>
+      </c>
+      <c r="R18" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q19" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="R19" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q20" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="R20" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
